--- a/upload/format_nilai.xlsx
+++ b/upload/format_nilai.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\silusi\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9764056C-6A3A-4C7C-872C-C2DEE747718B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{471ADABB-9D47-43A1-9D3F-EA0973A0465F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0E717172-3C02-4D07-A468-817235BFE0E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A82D7D7-8799-4CE0-9B40-A81B2BF49032}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,89 +36,80 @@
     <t>nomor_ujian</t>
   </si>
   <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>nilai_ujian_sekolah</t>
+  </si>
+  <si>
+    <t>nilai_usp</t>
+  </si>
+  <si>
+    <t>rerata</t>
+  </si>
+  <si>
     <t>2-18-19-20-0001</t>
   </si>
   <si>
+    <t>Ardha</t>
+  </si>
+  <si>
     <t>2-18-19-20-0002</t>
   </si>
   <si>
+    <t>Robby</t>
+  </si>
+  <si>
     <t>2-18-19-20-0003</t>
   </si>
   <si>
+    <t>Firmansyah</t>
+  </si>
+  <si>
     <t>2-18-19-20-0004</t>
   </si>
   <si>
+    <t>Firman</t>
+  </si>
+  <si>
     <t>2-18-19-20-0005</t>
   </si>
   <si>
+    <t>Agus</t>
+  </si>
+  <si>
     <t>2-18-19-20-0006</t>
   </si>
   <si>
+    <t>Atlas</t>
+  </si>
+  <si>
     <t>2-18-19-20-0007</t>
   </si>
   <si>
+    <t xml:space="preserve">Baret </t>
+  </si>
+  <si>
     <t>2-18-19-20-0008</t>
   </si>
   <si>
+    <t>Reneta</t>
+  </si>
+  <si>
     <t>2-18-19-20-0009</t>
   </si>
   <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>Agus</t>
-  </si>
-  <si>
-    <t>Ardha</t>
-  </si>
-  <si>
-    <t>Robby</t>
-  </si>
-  <si>
-    <t>Firmansyah</t>
-  </si>
-  <si>
-    <t>Firman</t>
-  </si>
-  <si>
-    <t>Atlas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baret </t>
-  </si>
-  <si>
-    <t>Reneta</t>
-  </si>
-  <si>
     <t>Asmin</t>
-  </si>
-  <si>
-    <t>nilai ujian sekolah</t>
-  </si>
-  <si>
-    <t>nilai usp</t>
-  </si>
-  <si>
-    <t>rata rata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,9 +135,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,22 +450,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B4EF20-18D4-4820-8FEB-F5440C998BE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6152E11A-BB69-4A6A-85B6-A31D88BCA285}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,19 +473,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -506,23 +493,23 @@
         <v>7888</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <f>AVERAGE(E2:F2)</f>
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -530,23 +517,23 @@
         <v>7889</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>95</v>
       </c>
       <c r="F3">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G10" si="0">AVERAGE(E3:F3)</f>
-        <v>86.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -554,23 +541,23 @@
         <v>7890</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>79</v>
       </c>
       <c r="F4">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>84.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -578,23 +565,23 @@
         <v>7891</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>77</v>
       </c>
       <c r="F5">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -602,23 +589,23 @@
         <v>7892</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>74</v>
       </c>
       <c r="F6">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -626,7 +613,7 @@
         <v>7893</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -635,14 +622,14 @@
         <v>71</v>
       </c>
       <c r="F7">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -650,23 +637,23 @@
         <v>7894</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>78</v>
       </c>
       <c r="F8">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>80.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -674,23 +661,23 @@
         <v>7895</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>90</v>
       </c>
       <c r="F9">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G9">
-        <f>AVERAGE(E9:F9)</f>
-        <v>86.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -698,25 +685,23 @@
         <v>7896</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>88</v>
       </c>
       <c r="F10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G10">
-        <f>AVERAGE(E10:F10)</f>
-        <v>85.5</v>
+        <f t="shared" si="0"/>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/upload/format_nilai.xlsx
+++ b/upload/format_nilai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\silusi\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{471ADABB-9D47-43A1-9D3F-EA0973A0465F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9459E065-8F4E-4D8E-8AE9-47D435E8537A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A82D7D7-8799-4CE0-9B40-A81B2BF49032}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>no</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>Asmin</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Lulus</t>
+  </si>
+  <si>
+    <t>Tidak Lulus</t>
   </si>
 </sst>
 </file>
@@ -451,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6152E11A-BB69-4A6A-85B6-A31D88BCA285}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H8" sqref="H8:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,7 +471,7 @@
     <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,8 +493,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -508,8 +520,11 @@
         <f>AVERAGE(E2:F2)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -532,8 +547,11 @@
         <f t="shared" ref="G3:G10" si="0">AVERAGE(E3:F3)</f>
         <v>90.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -556,8 +574,11 @@
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -580,8 +601,11 @@
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -604,8 +628,11 @@
         <f t="shared" si="0"/>
         <v>79.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -628,8 +655,11 @@
         <f t="shared" si="0"/>
         <v>81.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -652,8 +682,11 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -676,8 +709,11 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -699,6 +735,9 @@
       <c r="G10">
         <f t="shared" si="0"/>
         <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/upload/format_nilai.xlsx
+++ b/upload/format_nilai.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\silusi\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9459E065-8F4E-4D8E-8AE9-47D435E8537A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A82D7D7-8799-4CE0-9B40-A81B2BF49032}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,96 +24,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>nis</t>
-  </si>
-  <si>
-    <t>nomor_ujian</t>
-  </si>
-  <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>nilai_ujian_sekolah</t>
-  </si>
-  <si>
-    <t>nilai_usp</t>
-  </si>
-  <si>
-    <t>rerata</t>
-  </si>
-  <si>
-    <t>2-18-19-20-0001</t>
-  </si>
-  <si>
-    <t>Ardha</t>
-  </si>
-  <si>
-    <t>2-18-19-20-0002</t>
-  </si>
-  <si>
-    <t>Robby</t>
-  </si>
-  <si>
-    <t>2-18-19-20-0003</t>
-  </si>
-  <si>
-    <t>Firmansyah</t>
-  </si>
-  <si>
-    <t>2-18-19-20-0004</t>
-  </si>
-  <si>
-    <t>Firman</t>
-  </si>
-  <si>
-    <t>2-18-19-20-0005</t>
-  </si>
-  <si>
-    <t>Agus</t>
-  </si>
-  <si>
-    <t>2-18-19-20-0006</t>
-  </si>
-  <si>
-    <t>Atlas</t>
-  </si>
-  <si>
-    <t>2-18-19-20-0007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baret </t>
-  </si>
-  <si>
-    <t>2-18-19-20-0008</t>
-  </si>
-  <si>
-    <t>Reneta</t>
-  </si>
-  <si>
-    <t>2-18-19-20-0009</t>
-  </si>
-  <si>
-    <t>Asmin</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="11">
   <si>
     <t>Lulus</t>
   </si>
   <si>
-    <t>Tidak Lulus</t>
+    <t>siswa_id</t>
+  </si>
+  <si>
+    <t>mapel_id</t>
+  </si>
+  <si>
+    <t>nilai_rapot</t>
+  </si>
+  <si>
+    <t>nusp</t>
+  </si>
+  <si>
+    <t>nsp</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>status_lulus</t>
+  </si>
+  <si>
+    <t>status_pembayaran</t>
+  </si>
+  <si>
+    <t>Lunas</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,21 +407,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6152E11A-BB69-4A6A-85B6-A31D88BCA285}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -494,250 +444,1226 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7888</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+        <f>INT((ROW(C2)-2)/19)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>MOD(ROW()-2,19)+1</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G2">
-        <f>AVERAGE(E2:F2)</f>
-        <v>100</v>
+        <f>AVERAGE(D2:F2)</f>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7889</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+        <f t="shared" ref="B3:B39" si="0">INT((ROW(C3)-2)/19)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C38" si="1">MOD(ROW()-2,19)+1</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>95</v>
       </c>
       <c r="E3">
         <v>95</v>
       </c>
       <c r="F3">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" si="0">AVERAGE(E3:F3)</f>
-        <v>90.5</v>
+        <f t="shared" ref="G3:G39" si="2">AVERAGE(D3:F3)</f>
+        <v>95</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7890</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F4">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>79</v>
+        <f t="shared" si="2"/>
+        <v>95</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7891</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>95</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F5">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>77</v>
+        <f t="shared" si="2"/>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7892</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>95</v>
       </c>
       <c r="E6">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F6">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>79.5</v>
+        <f t="shared" si="2"/>
+        <v>95</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7893</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>95</v>
       </c>
       <c r="E7">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F7">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>81.5</v>
+        <f t="shared" si="2"/>
+        <v>95</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7894</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>95</v>
       </c>
       <c r="E8">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F8">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>78</v>
+        <f t="shared" si="2"/>
+        <v>95</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7895</v>
-      </c>
-      <c r="C9" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>95</v>
+      </c>
+      <c r="E9">
+        <v>95</v>
+      </c>
+      <c r="F9">
+        <v>95</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>95</v>
+      </c>
+      <c r="E10">
+        <v>95</v>
+      </c>
+      <c r="F10">
+        <v>95</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <v>95</v>
+      </c>
+      <c r="F11">
+        <v>95</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>95</v>
+      </c>
+      <c r="E12">
+        <v>95</v>
+      </c>
+      <c r="F12">
+        <v>95</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>95</v>
+      </c>
+      <c r="E13">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <v>95</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>95</v>
+      </c>
+      <c r="E14">
+        <v>95</v>
+      </c>
+      <c r="F14">
+        <v>95</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>95</v>
+      </c>
+      <c r="E15">
+        <v>95</v>
+      </c>
+      <c r="F15">
+        <v>95</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>95</v>
+      </c>
+      <c r="E16">
+        <v>95</v>
+      </c>
+      <c r="F16">
+        <v>95</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>95</v>
+      </c>
+      <c r="E17">
+        <v>95</v>
+      </c>
+      <c r="F17">
+        <v>95</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>95</v>
+      </c>
+      <c r="E18">
+        <v>95</v>
+      </c>
+      <c r="F18">
+        <v>95</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>95</v>
+      </c>
+      <c r="E19">
+        <v>95</v>
+      </c>
+      <c r="F19">
+        <v>95</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>95</v>
+      </c>
+      <c r="E20">
+        <v>95</v>
+      </c>
+      <c r="F20">
+        <v>95</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f>INT((ROW(C21)-2)/19)+1</f>
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>95</v>
+      </c>
+      <c r="E21">
+        <v>95</v>
+      </c>
+      <c r="F21">
+        <v>95</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>95</v>
+      </c>
+      <c r="E22">
+        <v>95</v>
+      </c>
+      <c r="F22">
+        <v>95</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>90</v>
-      </c>
-      <c r="F9">
-        <v>90</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>95</v>
+      </c>
+      <c r="E23">
+        <v>95</v>
+      </c>
+      <c r="F23">
+        <v>95</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>95</v>
+      </c>
+      <c r="E24">
+        <v>95</v>
+      </c>
+      <c r="F24">
+        <v>95</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>95</v>
+      </c>
+      <c r="E25">
+        <v>95</v>
+      </c>
+      <c r="F25">
+        <v>95</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <f>MOD(ROW()-2,19)+1</f>
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>95</v>
+      </c>
+      <c r="E26">
+        <v>95</v>
+      </c>
+      <c r="F26">
+        <v>95</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>95</v>
+      </c>
+      <c r="E27">
+        <v>95</v>
+      </c>
+      <c r="F27">
+        <v>95</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>7896</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>88</v>
-      </c>
-      <c r="F10">
-        <v>88</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>95</v>
+      </c>
+      <c r="E28">
+        <v>95</v>
+      </c>
+      <c r="F28">
+        <v>95</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>95</v>
+      </c>
+      <c r="E29">
+        <v>95</v>
+      </c>
+      <c r="F29">
+        <v>95</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>95</v>
+      </c>
+      <c r="E30">
+        <v>95</v>
+      </c>
+      <c r="F30">
+        <v>95</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>95</v>
+      </c>
+      <c r="E31">
+        <v>95</v>
+      </c>
+      <c r="F31">
+        <v>95</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>95</v>
+      </c>
+      <c r="E32">
+        <v>95</v>
+      </c>
+      <c r="F32">
+        <v>95</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>95</v>
+      </c>
+      <c r="E33">
+        <v>95</v>
+      </c>
+      <c r="F33">
+        <v>95</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>95</v>
+      </c>
+      <c r="E34">
+        <v>95</v>
+      </c>
+      <c r="F34">
+        <v>95</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>95</v>
+      </c>
+      <c r="E35">
+        <v>95</v>
+      </c>
+      <c r="F35">
+        <v>95</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>95</v>
+      </c>
+      <c r="E36">
+        <v>95</v>
+      </c>
+      <c r="F36">
+        <v>95</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>95</v>
+      </c>
+      <c r="E37">
+        <v>95</v>
+      </c>
+      <c r="F37">
+        <v>95</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>95</v>
+      </c>
+      <c r="E38">
+        <v>95</v>
+      </c>
+      <c r="F38">
+        <v>95</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <f>MOD(ROW()-2,19)+1</f>
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>95</v>
+      </c>
+      <c r="E39">
+        <v>95</v>
+      </c>
+      <c r="F39">
+        <v>95</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
